--- a/biology/Médecine/Muscle_droit_de_l'abdomen/Muscle_droit_de_l'abdomen.xlsx
+++ b/biology/Médecine/Muscle_droit_de_l'abdomen/Muscle_droit_de_l'abdomen.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Muscle_droit_de_l%27abdomen</t>
+          <t>Muscle_droit_de_l'abdomen</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle droit de l'abdomen, anciennement appelé muscle grand droit, est un muscle pair, plat, polygastrique (en plusieurs parties), plus large en haut qu'en bas situé dans la paroi antérieure de l'abdomen.
 Chacune de ses deux parties possède en général trois insertions tendineuses. Ses deux parties, le muscle droit droit et le muscle droit gauche, sont séparés par la ligne blanche (linea alba), partant du processus xyphoïde du sternum, s'arrêtant au niveau de l'ombilic et reprenant son chemin jusqu'au pubis. Les deux muscles sont également limités latéralement par une ligne tendineuse appelée "ligne de Spiegel". Des hernies sont possibles aux niveaux ombilical et latéraux, mais ce muscle reste cependant très résistant, contrairement aux muscles obliques et transverses de la paroi abdominale.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Muscle_droit_de_l%27abdomen</t>
+          <t>Muscle_droit_de_l'abdomen</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,15 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Origine
-Il s'appuie sur la face antérieure des côtes 5, 6 et 7 à la jonction entre les cartilages costaux et les côtes par une série de trois digitations, la première, latérale, s'appuie sur la côte 5, la deuxième, intermédiaire, sur la côte 6 et la dernière, médiale, sur la côte 7.
-Trajet
-Il descend dans la paroi antérieure de l'abdomen sous forme d'un muscle plat, entrecoupé de trois bandes fibreuses.
-Il présente la ligne blanche du muscle droit de l'abdomen, zone d'incision privilégiée pour certaines opérations de l'abdomen.
-Terminaison
-Ce muscle se termine sur la symphyse pubienne par un tendon.
-Innervation
-Il est innervé par les nerfs spinaux intercostaux (T6 à T11), subcostal (T12) et nerf génito fémoral (L1)
+          <t>Origine</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s'appuie sur la face antérieure des côtes 5, 6 et 7 à la jonction entre les cartilages costaux et les côtes par une série de trois digitations, la première, latérale, s'appuie sur la côte 5, la deuxième, intermédiaire, sur la côte 6 et la dernière, médiale, sur la côte 7.
 </t>
         </is>
       </c>
@@ -533,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Muscle_droit_de_l%27abdomen</t>
+          <t>Muscle_droit_de_l'abdomen</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,10 +558,124 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Trajet</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il descend dans la paroi antérieure de l'abdomen sous forme d'un muscle plat, entrecoupé de trois bandes fibreuses.
+Il présente la ligne blanche du muscle droit de l'abdomen, zone d'incision privilégiée pour certaines opérations de l'abdomen.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Muscle_droit_de_l'abdomen</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Muscle_droit_de_l%27abdomen</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Terminaison</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce muscle se termine sur la symphyse pubienne par un tendon.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Muscle_droit_de_l'abdomen</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Muscle_droit_de_l%27abdomen</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Innervation</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est innervé par les nerfs spinaux intercostaux (T6 à T11), subcostal (T12) et nerf génito fémoral (L1)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Muscle_droit_de_l'abdomen</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Muscle_droit_de_l%27abdomen</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Action</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est le principal muscle abdominal. Il aide à l'expiration mais est surtout important pour la protection des viscères et leur bon fonctionnement. C’est un muscle important dans la flexion du tronc, via un point fixe sur le bassin et inversement dans l'antéflexion du bassin lorsque la personne est couchée.
 </t>
